--- a/Development References/Master K-1.xlsx
+++ b/Development References/Master K-1.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="ZIP FInal" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,399 +20,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
-  <si>
-    <t xml:space="preserve">Zank Investment Property K-1 Tax Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address/LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Rents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advertising</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+  <si>
+    <t>Zank Investment Property K-1 Tax Sheet</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Address/LLC</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Gross Rents</t>
+  </si>
+  <si>
+    <t>Advertising</t>
   </si>
   <si>
     <t xml:space="preserve">Auto &amp; Travel </t>
   </si>
   <si>
-    <t xml:space="preserve">Cleaning &amp; Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal &amp; Other Professionals Fee’s</t>
+    <t>Cleaning &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Legal &amp; Other Professionals Fee’s</t>
   </si>
   <si>
     <t xml:space="preserve">Mortgage Interest paid to Financial </t>
   </si>
   <si>
-    <t xml:space="preserve">Mortgage Interest paid to Individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL INCOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL EXPENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET ICOME/LOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cottage</t>
+    <t>Mortgage Interest paid to Individuals</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>TOTAL INCOME</t>
+  </si>
+  <si>
+    <t>TOTAL EXPENSE</t>
+  </si>
+  <si>
+    <t>NET ICOME/LOSS</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Cottage</t>
   </si>
   <si>
     <t xml:space="preserve">426  Beach LLC</t>
   </si>
   <si>
-    <t xml:space="preserve">426 N Beach Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederic Street LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1421 Frederic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1514 Drummond LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1514 Drummond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">929 Cameron LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">929 Cameron Tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225 Baldwin LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225 Baldwin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheaton Land LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheaton Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2720 Pomona LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2720 Pomona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149 Terrance LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149 Terrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311 Talmadge LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311 Talmadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112 Imperial LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112 Imperial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1122 Imperial LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1122 Imperial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1138 Imperial LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1138 Imperial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1316 Fairfax LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1316 Fairfax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016 Necessity LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2018 Necessity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4140 Mary LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4140-4142 Mary Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4154 Mary LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4154-4156 Mary Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2821 Hallie LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2821-2823 Hallie Ln</t>
+    <t>426 N Beach Rd</t>
+  </si>
+  <si>
+    <t>Frederic Street LLC</t>
+  </si>
+  <si>
+    <t>1421 Frederic</t>
+  </si>
+  <si>
+    <t>1514 Drummond LLC</t>
+  </si>
+  <si>
+    <t>1514 Drummond</t>
+  </si>
+  <si>
+    <t>929 Cameron LLC</t>
+  </si>
+  <si>
+    <t>929 Cameron Tr</t>
+  </si>
+  <si>
+    <t>225 Baldwin LLC</t>
+  </si>
+  <si>
+    <t>225 Baldwin</t>
+  </si>
+  <si>
+    <t>Wheaton Land LLC</t>
+  </si>
+  <si>
+    <t>Wheaton Land</t>
+  </si>
+  <si>
+    <t>2720 Pomona LLC</t>
+  </si>
+  <si>
+    <t>2720 Pomona</t>
+  </si>
+  <si>
+    <t>149 Terrance LLC</t>
+  </si>
+  <si>
+    <t>149 Terrance</t>
+  </si>
+  <si>
+    <t>311 Talmadge LLC</t>
+  </si>
+  <si>
+    <t>311 Talmadge</t>
+  </si>
+  <si>
+    <t>1112 Imperial LLC</t>
+  </si>
+  <si>
+    <t>1112 Imperial</t>
+  </si>
+  <si>
+    <t>1122 Imperial LLC</t>
+  </si>
+  <si>
+    <t>1122 Imperial</t>
+  </si>
+  <si>
+    <t>1138 Imperial LLC</t>
+  </si>
+  <si>
+    <t>1138 Imperial</t>
+  </si>
+  <si>
+    <t>1316 Fairfax LLC</t>
+  </si>
+  <si>
+    <t>1316 Fairfax</t>
+  </si>
+  <si>
+    <t>2016 Necessity LLC</t>
+  </si>
+  <si>
+    <t>2016-2018 Necessity</t>
+  </si>
+  <si>
+    <t>4140 Mary LLC</t>
+  </si>
+  <si>
+    <t>4140-4142 Mary Place</t>
+  </si>
+  <si>
+    <t>4154 Mary LLC</t>
+  </si>
+  <si>
+    <t>4154-4156 Mary Place</t>
+  </si>
+  <si>
+    <t>2821 Hallie LLC</t>
+  </si>
+  <si>
+    <t>2821-2823 Hallie Ln</t>
   </si>
   <si>
     <t xml:space="preserve">4120 Robin  LLC</t>
   </si>
   <si>
-    <t xml:space="preserve">4120-4122 Robin Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1117 2nd LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1117 2nd Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424 Farwell LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424 Farwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112 Lynn LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112 Lynn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215 Farwell LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215 Farwell</t>
+    <t>4120-4122 Robin Rd</t>
+  </si>
+  <si>
+    <t>1117 2nd LLC</t>
+  </si>
+  <si>
+    <t>1117 2nd Ave</t>
+  </si>
+  <si>
+    <t>424 Farwell LLC</t>
+  </si>
+  <si>
+    <t>424 Farwell</t>
+  </si>
+  <si>
+    <t>2112 Lynn LLC</t>
+  </si>
+  <si>
+    <t>2112 Lynn</t>
+  </si>
+  <si>
+    <t>215 Farwell LLC</t>
+  </si>
+  <si>
+    <t>215 Farwell</t>
   </si>
   <si>
     <t xml:space="preserve">420  Washington LLC</t>
   </si>
   <si>
-    <t xml:space="preserve">420+1/2 Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal for MISC LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORN LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2923-2925 Northland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1815-1817 Rist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2810-2812 Terry Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal for TORN LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALZ HOMES LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1817 A &amp; B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2209-2211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2210-2212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2214-2216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal for PALZ HOMES LLC</t>
+    <t>420+1/2 Washington</t>
+  </si>
+  <si>
+    <t>Subtotal for MISC LLC</t>
+  </si>
+  <si>
+    <t>TORN LLC</t>
+  </si>
+  <si>
+    <t>2923-2925 Northland</t>
+  </si>
+  <si>
+    <t>1815-1817 Rist</t>
+  </si>
+  <si>
+    <t>2810-2812 Terry Lane</t>
+  </si>
+  <si>
+    <t>Subtotal for TORN LLC</t>
+  </si>
+  <si>
+    <t>PALZ HOMES LLC</t>
+  </si>
+  <si>
+    <t>1817 A &amp; B</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>2209-2211</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>2210-2212</t>
+  </si>
+  <si>
+    <t>2214-2216</t>
+  </si>
+  <si>
+    <t>Subtotal for PALZ HOMES LLC</t>
   </si>
   <si>
     <t xml:space="preserve">Wisconsin Three, LLC </t>
   </si>
   <si>
-    <t xml:space="preserve">507++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">515-515 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal for Wisconsin Three LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DewLoc LLC</t>
+    <t>507++</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>511++</t>
+  </si>
+  <si>
+    <t>515-515 1/2</t>
+  </si>
+  <si>
+    <t>Subtotal for Wisconsin Three LLC</t>
+  </si>
+  <si>
+    <t>DewLoc LLC</t>
   </si>
   <si>
     <t xml:space="preserve"> Dewey</t>
   </si>
   <si>
-    <t xml:space="preserve">222+ 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224+ 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locust</t>
+    <t>222+ 1/2</t>
+  </si>
+  <si>
+    <t>Dewey</t>
+  </si>
+  <si>
+    <t>224+ 1/2</t>
+  </si>
+  <si>
+    <t>Locust</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal for DewLoc LLC </t>
   </si>
   <si>
-    <t xml:space="preserve">GUND LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2415-2419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necessity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E Grand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca Zank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1311 Woodland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304 Marston LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">642 Wisconsin LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1610 Hogeboom LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hogeboom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal for GUND &amp; 304 Marston &amp; 642 Wisconsin &amp; 1610 Hogeboom LLC &amp; 1311 Woodland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLON LLC</t>
+    <t>GUND LLC</t>
+  </si>
+  <si>
+    <t>2415-2419</t>
+  </si>
+  <si>
+    <t>Bradwood</t>
+  </si>
+  <si>
+    <t>Necessity</t>
+  </si>
+  <si>
+    <t>Doty</t>
+  </si>
+  <si>
+    <t>E Grand</t>
+  </si>
+  <si>
+    <t>Rebecca Zank</t>
+  </si>
+  <si>
+    <t>1311 Woodland</t>
+  </si>
+  <si>
+    <t>304 Marston LLC</t>
+  </si>
+  <si>
+    <t>Marston</t>
+  </si>
+  <si>
+    <t>642 Wisconsin LLC</t>
+  </si>
+  <si>
+    <t>1610 Hogeboom LLC</t>
+  </si>
+  <si>
+    <t>Hogeboom</t>
+  </si>
+  <si>
+    <t>Subtotal for GUND &amp; 304 Marston &amp; 642 Wisconsin &amp; 1610 Hogeboom LLC &amp; 1311 Woodland</t>
+  </si>
+  <si>
+    <t>CLON LLC</t>
   </si>
   <si>
     <t xml:space="preserve">619-23 </t>
   </si>
   <si>
-    <t xml:space="preserve">3rd St W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1318-1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clairemont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoover E &amp; W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3515-3517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana Ln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal CLON LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENLLY LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1719-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lloyd Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benton Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal BENLLY LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHADY HILL LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2922-2924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beverly Hills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2928-2930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3004-3006</t>
+    <t>3rd St W</t>
+  </si>
+  <si>
+    <t>1318-1320</t>
+  </si>
+  <si>
+    <t>Clairemont</t>
+  </si>
+  <si>
+    <t>Hoover E &amp; W</t>
+  </si>
+  <si>
+    <t>3515-3517</t>
+  </si>
+  <si>
+    <t>Lana Ln</t>
+  </si>
+  <si>
+    <t>Subtotal CLON LLC</t>
+  </si>
+  <si>
+    <t>BENLLY LLC</t>
+  </si>
+  <si>
+    <t>1719-21</t>
+  </si>
+  <si>
+    <t>Lloyd Ave</t>
+  </si>
+  <si>
+    <t>Benton Ave</t>
+  </si>
+  <si>
+    <t>Subtotal BENLLY LLC</t>
+  </si>
+  <si>
+    <t>SHADY HILL LLC</t>
+  </si>
+  <si>
+    <t>2922-2924</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>2928-2930</t>
+  </si>
+  <si>
+    <t>3004-3006</t>
   </si>
   <si>
     <t xml:space="preserve">Beverly  Hills</t>
@@ -421,44 +421,49 @@
     <t xml:space="preserve">2531-33 Shady Grove </t>
   </si>
   <si>
-    <t xml:space="preserve">Subtotal SHADY HILL LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HENRY VIII LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2410-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2726-2728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blakeley</t>
+    <t>Subtotal SHADY HILL LLC</t>
+  </si>
+  <si>
+    <t>HENRY VIII LLC</t>
+  </si>
+  <si>
+    <t>2410-12</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>2726-2728</t>
+  </si>
+  <si>
+    <t>Pomona</t>
+  </si>
+  <si>
+    <t>Blakeley</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal HENRY VIII LLC </t>
   </si>
   <si>
-    <t xml:space="preserve">GRAND TOTALS</t>
+    <t>GRAND TOTALS</t>
+  </si>
+  <si>
+    <t>1101 Dewey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\$#,##0"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -471,24 +476,14 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
@@ -516,14 +511,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -531,116 +526,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -822,31 +783,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.29296875" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5390625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="8" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="14.29"/>
+    <col min="1" max="1" width="2.22" customWidth="1" style="1"/>
+    <col min="2" max="2" width="12.7" customWidth="1" style="1"/>
+    <col min="3" max="3" width="12.65" customWidth="1" style="1"/>
+    <col min="4" max="6" width="6.62" customWidth="1" style="1"/>
+    <col min="7" max="7" width="7.65" customWidth="1" style="1"/>
+    <col min="8" max="13" width="6.62" customWidth="1" style="1"/>
+    <col min="14" max="14" width="9.38" customWidth="1" style="1"/>
+    <col min="15" max="15" width="6.62" customWidth="1" style="1"/>
+    <col min="16" max="16" width="7.91" customWidth="1" style="1"/>
+    <col min="17" max="17" width="7.09" customWidth="1" style="1"/>
+    <col min="18" max="19" width="6.62" customWidth="1" style="1"/>
+    <col min="20" max="16384" width="9.54" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="28.65" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +832,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="21" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -896,7 +859,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="60.2" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -953,8 +916,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="21.2" customHeight="1">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -963,58 +926,58 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="n">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
         <v>726</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>2039</v>
       </c>
-      <c r="K4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9" t="n">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
         <v>2223</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="9">
         <v>686</v>
       </c>
       <c r="P4" s="9"/>
-      <c r="Q4" s="10" t="n">
-        <f aca="false">D4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <f aca="false">SUM(E4:P4)</f>
+      <c r="Q4" s="10">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <f>SUM(E4:P4)</f>
         <v>5674</v>
       </c>
-      <c r="S4" s="10" t="n">
-        <f aca="false">Q4-R4</f>
+      <c r="S4" s="10">
+        <f>Q4-R4</f>
         <v>-5674</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1023,58 +986,58 @@
       <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>7300</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="n">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>2317</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="9">
         <v>504</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="n">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
         <v>435</v>
       </c>
-      <c r="M5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="n">
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
         <v>2636</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="9">
         <v>2644</v>
       </c>
       <c r="P5" s="9"/>
-      <c r="Q5" s="10" t="n">
-        <f aca="false">D5</f>
+      <c r="Q5" s="10">
+        <f>D5</f>
         <v>7300</v>
       </c>
-      <c r="R5" s="10" t="n">
-        <f aca="false">SUM(E5:P5)</f>
+      <c r="R5" s="10">
+        <f>SUM(E5:P5)</f>
         <v>8536</v>
       </c>
-      <c r="S5" s="10" t="n">
-        <f aca="false">Q5-R5</f>
+      <c r="S5" s="10">
+        <f>Q5-R5</f>
         <v>-1236</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1083,58 +1046,58 @@
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>20988.52</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <v>35</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>908</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>3849</v>
       </c>
-      <c r="K6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>284</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <v>184</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>3826</v>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>779</v>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>110</v>
+      </c>
+      <c r="M6" s="10">
+        <v>129.92</v>
+      </c>
+      <c r="N6" s="10">
+        <v>3825.83</v>
+      </c>
+      <c r="O6" s="10">
+        <v>778.99</v>
       </c>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10" t="n">
-        <f aca="false">D6</f>
+      <c r="Q6" s="10">
+        <f>D6</f>
         <v>20988.52</v>
       </c>
-      <c r="R6" s="10" t="n">
-        <f aca="false">SUM(E6:P6)</f>
-        <v>9865</v>
-      </c>
-      <c r="S6" s="10" t="n">
-        <f aca="false">Q6-R6</f>
-        <v>11123.52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="R6" s="10">
+        <f>SUM(E6:P6)</f>
+        <v>5032.92</v>
+      </c>
+      <c r="S6" s="10">
+        <f>Q6-R6</f>
+        <v>15955.6</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1143,58 +1106,58 @@
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>20269.1</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>1018</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
         <v>387</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>359</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>331</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="9">
         <v>762</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="9">
         <v>2611</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>601</v>
       </c>
       <c r="P7" s="9"/>
-      <c r="Q7" s="10" t="n">
-        <f aca="false">D7</f>
+      <c r="Q7" s="10">
+        <f>D7</f>
         <v>20269.1</v>
       </c>
-      <c r="R7" s="10" t="n">
-        <f aca="false">SUM(E7:P7)</f>
+      <c r="R7" s="10">
+        <f>SUM(E7:P7)</f>
         <v>6069</v>
       </c>
-      <c r="S7" s="10" t="n">
-        <f aca="false">Q7-R7</f>
+      <c r="S7" s="10">
+        <f>Q7-R7</f>
         <v>14200.1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1203,58 +1166,58 @@
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>14084</v>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="n">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
         <v>846</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>490</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="n">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
         <v>2713</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="9">
         <v>1146</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="N8" s="9">
         <v>1436</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>443</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="10" t="n">
-        <f aca="false">D8</f>
+      <c r="Q8" s="10">
+        <f>D8</f>
         <v>14084</v>
       </c>
-      <c r="R8" s="10" t="n">
-        <f aca="false">SUM(E8:P8)</f>
+      <c r="R8" s="10">
+        <f>SUM(E8:P8)</f>
         <v>7074</v>
       </c>
-      <c r="S8" s="10" t="n">
-        <f aca="false">Q8-R8</f>
+      <c r="S8" s="10">
+        <f>Q8-R8</f>
         <v>7010</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1263,58 +1226,58 @@
       <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>13137.19</v>
       </c>
-      <c r="E9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>828</v>
       </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9" t="n">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
         <v>796</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="9">
         <v>700</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="9">
         <v>2492</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="9">
         <v>498</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="10" t="n">
-        <f aca="false">D9</f>
+      <c r="Q9" s="10">
+        <f>D9</f>
         <v>13137.19</v>
       </c>
-      <c r="R9" s="10" t="n">
-        <f aca="false">SUM(E9:P9)</f>
+      <c r="R9" s="10">
+        <f>SUM(E9:P9)</f>
         <v>5314</v>
       </c>
-      <c r="S9" s="10" t="n">
-        <f aca="false">Q9-R9</f>
+      <c r="S9" s="10">
+        <f>Q9-R9</f>
         <v>7823.19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1336,21 +1299,21 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="10" t="n">
-        <f aca="false">D10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10" t="n">
-        <f aca="false">SUM(E10:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="10" t="n">
-        <f aca="false">Q10-R10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="Q10" s="10">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <f>SUM(E10:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f>Q10-R10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1372,21 +1335,21 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="10" t="n">
-        <f aca="false">D11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10" t="n">
-        <f aca="false">SUM(E11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="10" t="n">
-        <f aca="false">Q11-R11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="Q11" s="10">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <f>SUM(E11:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <f>Q11-R11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1408,21 +1371,21 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="10" t="n">
-        <f aca="false">D12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10" t="n">
-        <f aca="false">SUM(E12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="10" t="n">
-        <f aca="false">Q12-R12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="Q12" s="10">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <f>SUM(E12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <f>Q12-R12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1444,21 +1407,21 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="10" t="n">
-        <f aca="false">D13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10" t="n">
-        <f aca="false">SUM(E13:P13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="10" t="n">
-        <f aca="false">Q13-R13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="Q13" s="10">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <f>SUM(E13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f>Q13-R13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1480,21 +1443,21 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="10" t="n">
-        <f aca="false">D14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10" t="n">
-        <f aca="false">SUM(E14:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="10" t="n">
-        <f aca="false">Q14-R14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="Q14" s="10">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <f>SUM(E14:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f>Q14-R14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1516,21 +1479,21 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="10" t="n">
-        <f aca="false">D15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10" t="n">
-        <f aca="false">SUM(E15:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="10" t="n">
-        <f aca="false">Q15-R15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="Q15" s="10">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <f>SUM(E15:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f>Q15-R15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1552,21 +1515,21 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="10" t="n">
-        <f aca="false">D16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10" t="n">
-        <f aca="false">SUM(E16:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="10" t="n">
-        <f aca="false">Q16-R16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="Q16" s="10">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <f>SUM(E16:P16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <f>Q16-R16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1588,21 +1551,21 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="10" t="n">
-        <f aca="false">D17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="n">
-        <f aca="false">SUM(E17:P17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="10" t="n">
-        <f aca="false">Q17-R17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="Q17" s="10">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <f>SUM(E17:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <f>Q17-R17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1624,21 +1587,21 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="10" t="n">
-        <f aca="false">D18</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="10" t="n">
-        <f aca="false">SUM(E18:P18)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="10" t="n">
-        <f aca="false">Q18-R18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="Q18" s="10">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <f>SUM(E18:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f>Q18-R18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1660,21 +1623,21 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="10" t="n">
-        <f aca="false">D19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="10" t="n">
-        <f aca="false">SUM(E19:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="10" t="n">
-        <f aca="false">Q19-R19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="Q19" s="10">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <f>SUM(E19:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <f>Q19-R19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1696,21 +1659,21 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="10" t="n">
-        <f aca="false">D20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="10" t="n">
-        <f aca="false">SUM(E20:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="10" t="n">
-        <f aca="false">Q20-R20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="Q20" s="10">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <f>SUM(E20:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <f>Q20-R20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1732,21 +1695,21 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="10" t="n">
-        <f aca="false">D21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="10" t="n">
-        <f aca="false">SUM(E21:P21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="10" t="n">
-        <f aca="false">Q21-R21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="Q21" s="10">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="10">
+        <f>SUM(E21:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <f>Q21-R21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1768,21 +1731,21 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="10" t="n">
-        <f aca="false">D22</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="10" t="n">
-        <f aca="false">SUM(E22:P22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="10" t="n">
-        <f aca="false">Q22-R22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="Q22" s="10">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <f>SUM(E22:P22)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <f>Q22-R22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1804,21 +1767,21 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="10" t="n">
-        <f aca="false">D23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="10" t="n">
-        <f aca="false">SUM(E23:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="10" t="n">
-        <f aca="false">Q23-R23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="Q23" s="10">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
+        <f>SUM(E23:P23)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <f>Q23-R23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1840,21 +1803,21 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="10" t="n">
-        <f aca="false">D24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="10" t="n">
-        <f aca="false">SUM(E24:P24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="10" t="n">
-        <f aca="false">Q24-R24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="Q24" s="10">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <f>SUM(E24:P24)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <f>Q24-R24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1876,21 +1839,21 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="10" t="n">
-        <f aca="false">D25</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="10" t="n">
-        <f aca="false">SUM(E25:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="10" t="n">
-        <f aca="false">Q25-R25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="Q25" s="10">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <f>SUM(E25:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <f>Q25-R25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1912,21 +1875,21 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="10" t="n">
-        <f aca="false">D26</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10" t="n">
-        <f aca="false">SUM(E26:P26)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10" t="n">
-        <f aca="false">Q26-R26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="Q26" s="10">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <f>SUM(E26:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <f>Q26-R26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="21" customHeight="1">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1948,20 +1911,20 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="10" t="n">
-        <f aca="false">D27</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="10" t="n">
-        <f aca="false">SUM(E27:P27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="10" t="n">
-        <f aca="false">Q27-R27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q27" s="10">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f>SUM(E27:P27)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f>Q27-R27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>70</v>
@@ -1980,20 +1943,20 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="16" t="n">
-        <f aca="false">SUM(Q4:Q27)</f>
+      <c r="Q28" s="16">
+        <f>SUM(Q4:Q27)</f>
         <v>75778.81</v>
       </c>
-      <c r="R28" s="16" t="n">
-        <f aca="false">SUM(R4:R27)</f>
-        <v>42532</v>
-      </c>
-      <c r="S28" s="16" t="n">
-        <f aca="false">SUM(S4:S27)</f>
-        <v>33246.81</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R28" s="16">
+        <f>SUM(R4:R27)</f>
+        <v>37699.92</v>
+      </c>
+      <c r="S28" s="16">
+        <f>SUM(S4:S27)</f>
+        <v>38078.89</v>
+      </c>
+    </row>
+    <row r="29" ht="21" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>71</v>
@@ -2016,8 +1979,8 @@
       <c r="R29" s="16"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" ht="21" customHeight="1">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2039,21 +2002,21 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="10" t="n">
-        <f aca="false">D30</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="10" t="n">
-        <f aca="false">SUM(E30:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="10" t="n">
-        <f aca="false">Q30-R30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="Q30" s="10">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <f>SUM(E30:P30)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <f>Q30-R30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1">
+      <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -2075,21 +2038,21 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="10" t="n">
-        <f aca="false">D31</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="10" t="n">
-        <f aca="false">SUM(E31:P31)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="10" t="n">
-        <f aca="false">Q31-R31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="Q31" s="10">
+        <f>D31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <f>SUM(E31:P31)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <f>Q31-R31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="21" customHeight="1">
+      <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2111,20 +2074,20 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="10" t="n">
-        <f aca="false">D32</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="10" t="n">
-        <f aca="false">SUM(E32:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="10" t="n">
-        <f aca="false">Q32-R32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="10">
+        <f>D32</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <f>SUM(E32:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <f>Q32-R32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="21" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>75</v>
@@ -2143,20 +2106,20 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="16" t="n">
-        <f aca="false">D33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="16" t="n">
-        <f aca="false">SUM(R30:R32)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="16" t="n">
-        <f aca="false">Q33-R33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q33" s="16">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <f>SUM(R30:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <f>Q33-R33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="21" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -2179,8 +2142,8 @@
       <c r="R34" s="16"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" s="3">
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2202,24 +2165,24 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="10" t="n">
-        <f aca="false">D35</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="10" t="n">
-        <f aca="false">SUM(E35:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="10" t="n">
-        <f aca="false">Q35-R35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="Q35" s="10">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
+        <f>SUM(E35:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <f>Q35-R35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="21" customHeight="1">
+      <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="17">
         <v>1008</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2238,21 +2201,21 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="10" t="n">
-        <f aca="false">D36</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="10" t="n">
-        <f aca="false">SUM(E36:P36)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="10" t="n">
-        <f aca="false">Q36-R36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="Q36" s="10">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="10">
+        <f>SUM(E36:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <f>Q36-R36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="21" customHeight="1">
+      <c r="A37" s="3">
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2274,21 +2237,21 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="10" t="n">
-        <f aca="false">D37</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="10" t="n">
-        <f aca="false">SUM(E37:P37)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="10" t="n">
-        <f aca="false">Q37-R37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="Q37" s="10">
+        <f>D37</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="10">
+        <f>SUM(E37:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <f>Q37-R37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="21" customHeight="1">
+      <c r="A38" s="3">
         <v>31</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2310,21 +2273,21 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="10" t="n">
-        <f aca="false">D38</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="10" t="n">
-        <f aca="false">SUM(E38:P38)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="10" t="n">
-        <f aca="false">Q38-R38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="Q38" s="10">
+        <f>D38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="10">
+        <f>SUM(E38:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <f>Q38-R38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="21" customHeight="1">
+      <c r="A39" s="3">
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2346,20 +2309,20 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="10" t="n">
-        <f aca="false">D39</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="10" t="n">
-        <f aca="false">SUM(E39:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="10" t="n">
-        <f aca="false">Q39-R39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q39" s="10">
+        <f>D39</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="10">
+        <f>SUM(E39:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <f>Q39-R39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="21" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>84</v>
@@ -2378,20 +2341,20 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="16" t="n">
-        <f aca="false">D40</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="16" t="n">
-        <f aca="false">SUM(R35:R39)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="16" t="n">
-        <f aca="false">Q40-R40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q40" s="16">
+        <f>D40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="16">
+        <f>SUM(R35:R39)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="16">
+        <f>Q40-R40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="21" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>85</v>
@@ -2414,8 +2377,8 @@
       <c r="R41" s="16"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" ht="21" customHeight="1">
+      <c r="A42" s="3">
         <v>33</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2437,21 +2400,21 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="10" t="n">
-        <f aca="false">D42</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="10" t="n">
-        <f aca="false">SUM(E42:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="10" t="n">
-        <f aca="false">Q42-R42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="Q42" s="10">
+        <f>D42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="10">
+        <f>SUM(E42:P42)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <f>Q42-R42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="21" customHeight="1">
+      <c r="A43" s="3">
         <v>34</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2473,21 +2436,21 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="10" t="n">
-        <f aca="false">D43</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="10" t="n">
-        <f aca="false">SUM(E43:P43)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="10" t="n">
-        <f aca="false">Q43-R43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="Q43" s="10">
+        <f>D43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <f>SUM(E43:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <f>Q43-R43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="21" customHeight="1">
+      <c r="A44" s="3">
         <v>35</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2509,20 +2472,20 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="10" t="n">
-        <f aca="false">D44</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="10" t="n">
-        <f aca="false">SUM(E44:P44)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="10" t="n">
-        <f aca="false">Q44-R44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q44" s="10">
+        <f>D44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <f>SUM(E44:P44)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <f>Q44-R44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="21" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>90</v>
@@ -2541,20 +2504,20 @@
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="16" t="n">
-        <f aca="false">D45</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="16" t="n">
-        <f aca="false">SUM(R42:R44)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="16" t="n">
-        <f aca="false">Q45-R45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q45" s="16">
+        <f>D45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="16">
+        <f>SUM(R42:R44)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="16">
+        <f>Q45-R45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="21" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>91</v>
@@ -2577,11 +2540,11 @@
       <c r="R46" s="16"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" ht="21" customHeight="1">
+      <c r="A47" s="3">
         <v>36</v>
       </c>
-      <c r="B47" s="17" t="n">
+      <c r="B47" s="17">
         <v>218</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2600,21 +2563,21 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="10" t="n">
-        <f aca="false">D47</f>
-        <v>0</v>
-      </c>
-      <c r="R47" s="10" t="n">
-        <f aca="false">SUM(E47:P47)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="10" t="n">
-        <f aca="false">Q47-R47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="Q47" s="10">
+        <f>D47</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="10">
+        <f>SUM(E47:P47)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="10">
+        <f>Q47-R47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="21" customHeight="1">
+      <c r="A48" s="3">
         <v>37</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -2636,21 +2599,21 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="10" t="n">
-        <f aca="false">D48</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="10" t="n">
-        <f aca="false">SUM(E48:P48)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="10" t="n">
-        <f aca="false">Q48-R48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="Q48" s="10">
+        <f>D48</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="10">
+        <f>SUM(E48:P48)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="10">
+        <f>Q48-R48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="21" customHeight="1">
+      <c r="A49" s="3">
         <v>38</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -2672,24 +2635,24 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="10" t="n">
-        <f aca="false">D49</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="10" t="n">
-        <f aca="false">SUM(E49:P49)</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="10" t="n">
-        <f aca="false">Q49-R49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="Q49" s="10">
+        <f>D49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <f>SUM(E49:P49)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="10">
+        <f>Q49-R49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="21" customHeight="1">
+      <c r="A50" s="3">
         <v>39</v>
       </c>
-      <c r="B50" s="17" t="n">
+      <c r="B50" s="17">
         <v>3303</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -2708,20 +2671,20 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="10" t="n">
-        <f aca="false">D50</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="10" t="n">
-        <f aca="false">SUM(E50:P50)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="10" t="n">
-        <f aca="false">Q50-R50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q50" s="10">
+        <f>D50</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="10">
+        <f>SUM(E50:P50)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="10">
+        <f>Q50-R50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="21" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="7" t="s">
         <v>97</v>
@@ -2740,20 +2703,20 @@
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
-      <c r="Q51" s="16" t="n">
-        <f aca="false">D51</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="16" t="n">
-        <f aca="false">SUM(R47:R50)</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="16" t="n">
-        <f aca="false">Q51-R51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q51" s="16">
+        <f>D51</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
+        <f>SUM(R47:R50)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="16">
+        <f>Q51-R51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="21" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
         <v>98</v>
@@ -2776,8 +2739,8 @@
       <c r="R52" s="16"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" ht="21" customHeight="1">
+      <c r="A53" s="3">
         <v>40</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -2799,24 +2762,24 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="10" t="n">
-        <f aca="false">D53</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="10" t="n">
-        <f aca="false">SUM(E53:P53)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="10" t="n">
-        <f aca="false">Q53-R53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="Q53" s="10">
+        <f>D53</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <f>SUM(E53:P53)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="10">
+        <f>Q53-R53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="21" customHeight="1">
+      <c r="A54" s="3">
         <v>41</v>
       </c>
-      <c r="B54" s="17" t="n">
+      <c r="B54" s="17">
         <v>1720</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2835,24 +2798,24 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="10" t="n">
-        <f aca="false">D54</f>
-        <v>0</v>
-      </c>
-      <c r="R54" s="10" t="n">
-        <f aca="false">SUM(E54:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="10" t="n">
-        <f aca="false">Q54-R54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="Q54" s="10">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <f>SUM(E54:P54)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <f>Q54-R54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="21" customHeight="1">
+      <c r="A55" s="3">
         <v>42</v>
       </c>
-      <c r="B55" s="17" t="n">
+      <c r="B55" s="17">
         <v>704</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2871,24 +2834,24 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="10" t="n">
-        <f aca="false">D55</f>
-        <v>0</v>
-      </c>
-      <c r="R55" s="10" t="n">
-        <f aca="false">SUM(E55:P55)</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="10" t="n">
-        <f aca="false">Q55-R55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="Q55" s="10">
+        <f>D55</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <f>SUM(E55:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="10">
+        <f>Q55-R55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="21" customHeight="1">
+      <c r="A56" s="3">
         <v>43</v>
       </c>
-      <c r="B56" s="17" t="n">
+      <c r="B56" s="17">
         <v>824</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -2907,21 +2870,21 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="10" t="n">
-        <f aca="false">D56</f>
-        <v>0</v>
-      </c>
-      <c r="R56" s="10" t="n">
-        <f aca="false">SUM(E56:P56)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="10" t="n">
-        <f aca="false">Q56-R56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="Q56" s="10">
+        <f>D56</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <f>SUM(E56:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <f>Q56-R56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="21" customHeight="1">
+      <c r="A57" s="3">
         <v>44</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -2943,21 +2906,21 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="10" t="n">
-        <f aca="false">D57</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="10" t="n">
-        <f aca="false">SUM(E57:P57)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="10" t="n">
-        <f aca="false">Q57-R57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="Q57" s="10">
+        <f>D57</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
+        <f>SUM(E57:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <f>Q57-R57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="21" customHeight="1">
+      <c r="A58" s="3">
         <v>45</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -2979,21 +2942,21 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="10" t="n">
-        <f aca="false">D58</f>
-        <v>0</v>
-      </c>
-      <c r="R58" s="10" t="n">
-        <f aca="false">SUM(E58:P58)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="10" t="n">
-        <f aca="false">Q58-R58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="Q58" s="10">
+        <f>D58</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="10">
+        <f>SUM(E58:P58)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <f>Q58-R58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="21" customHeight="1">
+      <c r="A59" s="3">
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3015,21 +2978,21 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="10" t="n">
-        <f aca="false">D59</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="10" t="n">
-        <f aca="false">SUM(E59:P59)</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="10" t="n">
-        <f aca="false">Q59-R59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="Q59" s="10">
+        <f>D59</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="10">
+        <f>SUM(E59:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <f>Q59-R59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="21" customHeight="1">
+      <c r="A60" s="3">
         <v>47</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -3051,20 +3014,20 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="10" t="n">
-        <f aca="false">D60</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="10" t="n">
-        <f aca="false">SUM(E60:P60)</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="10" t="n">
-        <f aca="false">Q60-R60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q60" s="10">
+        <f>D60</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="10">
+        <f>SUM(E60:P60)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="10">
+        <f>Q60-R60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="47" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
@@ -3083,20 +3046,20 @@
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
-      <c r="Q61" s="16" t="n">
-        <f aca="false">D61</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="16" t="n">
-        <f aca="false">SUM(R53:R60)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="16" t="n">
-        <f aca="false">Q61-R61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q61" s="16">
+        <f>D61</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="16">
+        <f>SUM(R53:R60)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="16">
+        <f>Q61-R61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="21" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
@@ -3119,11 +3082,11 @@
       <c r="R62" s="16"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" ht="21" customHeight="1">
+      <c r="A63" s="3">
         <v>48</v>
       </c>
-      <c r="B63" s="17" t="n">
+      <c r="B63" s="17">
         <v>1712</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3142,21 +3105,21 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="10" t="n">
-        <f aca="false">D63</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="10" t="n">
-        <f aca="false">SUM(E63:P63)</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="10" t="n">
-        <f aca="false">Q63-R63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="Q63" s="10">
+        <f>D63</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="10">
+        <f>SUM(E63:P63)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="10">
+        <f>Q63-R63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" s="3">
         <v>49</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -3178,21 +3141,21 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="10" t="n">
-        <f aca="false">D64</f>
-        <v>0</v>
-      </c>
-      <c r="R64" s="10" t="n">
-        <f aca="false">SUM(E64:P64)</f>
-        <v>0</v>
-      </c>
-      <c r="S64" s="10" t="n">
-        <f aca="false">Q64-R64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="Q64" s="10">
+        <f>D64</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="10">
+        <f>SUM(E64:P64)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <f>Q64-R64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="21" customHeight="1">
+      <c r="A65" s="3">
         <v>50</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3214,24 +3177,24 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="10" t="n">
-        <f aca="false">D65</f>
-        <v>0</v>
-      </c>
-      <c r="R65" s="10" t="n">
-        <f aca="false">SUM(E65:P65)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="10" t="n">
-        <f aca="false">Q65-R65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="Q65" s="10">
+        <f>D65</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="10">
+        <f>SUM(E65:P65)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="10">
+        <f>Q65-R65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="21" customHeight="1">
+      <c r="A66" s="3">
         <v>51</v>
       </c>
-      <c r="B66" s="17" t="n">
+      <c r="B66" s="17">
         <v>1809</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -3250,21 +3213,21 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="10" t="n">
-        <f aca="false">D66</f>
-        <v>0</v>
-      </c>
-      <c r="R66" s="10" t="n">
-        <f aca="false">SUM(E66:P66)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="10" t="n">
-        <f aca="false">Q66-R66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="Q66" s="10">
+        <f>D66</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="10">
+        <f>SUM(E66:P66)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <f>Q66-R66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="21" customHeight="1">
+      <c r="A67" s="3">
         <v>52</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3286,20 +3249,20 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="10" t="n">
-        <f aca="false">D67</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="10" t="n">
-        <f aca="false">SUM(E67:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="10" t="n">
-        <f aca="false">Q67-R67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q67" s="10">
+        <f>D67</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="10">
+        <f>SUM(E67:P67)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="10">
+        <f>Q67-R67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="21" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="7" t="s">
         <v>120</v>
@@ -3318,20 +3281,20 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
-      <c r="Q68" s="16" t="n">
-        <f aca="false">D68</f>
-        <v>0</v>
-      </c>
-      <c r="R68" s="16" t="n">
-        <f aca="false">SUM(R63:R67)</f>
-        <v>0</v>
-      </c>
-      <c r="S68" s="16" t="n">
-        <f aca="false">Q68-R68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q68" s="16">
+        <f>D68</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="16">
+        <f>SUM(R63:R67)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="16">
+        <f>Q68-R68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="21" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
         <v>121</v>
@@ -3354,8 +3317,8 @@
       <c r="R69" s="16"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" ht="21.35" customHeight="1">
+      <c r="A70" s="3">
         <v>53</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -3377,24 +3340,24 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="10" t="n">
-        <f aca="false">D70</f>
-        <v>0</v>
-      </c>
-      <c r="R70" s="10" t="n">
-        <f aca="false">SUM(E70:P70)</f>
-        <v>0</v>
-      </c>
-      <c r="S70" s="10" t="n">
-        <f aca="false">Q70-R70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="Q70" s="10">
+        <f>D70</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="10">
+        <f>SUM(E70:P70)</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="10">
+        <f>Q70-R70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="21.65" customHeight="1">
+      <c r="A71" s="3">
         <v>54</v>
       </c>
-      <c r="B71" s="17" t="n">
+      <c r="B71" s="17">
         <v>1815</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -3413,24 +3376,24 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="10" t="n">
-        <f aca="false">D71</f>
-        <v>0</v>
-      </c>
-      <c r="R71" s="10" t="n">
-        <f aca="false">SUM(E71:P71)</f>
-        <v>0</v>
-      </c>
-      <c r="S71" s="10" t="n">
-        <f aca="false">Q71-R71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="Q71" s="10">
+        <f>D71</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="10">
+        <f>SUM(E71:P71)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="10">
+        <f>Q71-R71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="21.65" customHeight="1">
+      <c r="A72" s="3">
         <v>55</v>
       </c>
-      <c r="B72" s="17" t="n">
+      <c r="B72" s="17">
         <v>1816</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -3449,24 +3412,24 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="10" t="n">
-        <f aca="false">D72</f>
-        <v>0</v>
-      </c>
-      <c r="R72" s="10" t="n">
-        <f aca="false">SUM(E72:P72)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="10" t="n">
-        <f aca="false">Q72-R72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="Q72" s="10">
+        <f>D72</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="10">
+        <f>SUM(E72:P72)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="10">
+        <f>Q72-R72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="21.35" customHeight="1">
+      <c r="A73" s="3">
         <v>56</v>
       </c>
-      <c r="B73" s="17" t="n">
+      <c r="B73" s="17">
         <v>1823</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -3485,24 +3448,24 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="10" t="n">
-        <f aca="false">D73</f>
-        <v>0</v>
-      </c>
-      <c r="R73" s="10" t="n">
-        <f aca="false">SUM(E73:P73)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="10" t="n">
-        <f aca="false">Q73-R73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="Q73" s="10">
+        <f>D73</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="10">
+        <f>SUM(E73:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="10">
+        <f>Q73-R73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="21" customHeight="1">
+      <c r="A74" s="3">
         <v>57</v>
       </c>
-      <c r="B74" s="17" t="n">
+      <c r="B74" s="17">
         <v>1915</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -3521,20 +3484,20 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-      <c r="Q74" s="10" t="n">
-        <f aca="false">D74</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="10" t="n">
-        <f aca="false">SUM(E74:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="10" t="n">
-        <f aca="false">Q74-R74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q74" s="10">
+        <f>D74</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="10">
+        <f>SUM(E74:P74)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="10">
+        <f>Q74-R74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="21" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="7" t="s">
         <v>125</v>
@@ -3553,20 +3516,20 @@
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
-      <c r="Q75" s="16" t="n">
-        <f aca="false">D75</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="16" t="n">
-        <f aca="false">SUM(R70:R74)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="16" t="n">
-        <f aca="false">Q75-R75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q75" s="16">
+        <f>D75</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="16">
+        <f>SUM(R70:R74)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="16">
+        <f>Q75-R75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="21" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="7" t="s">
         <v>126</v>
@@ -3589,8 +3552,8 @@
       <c r="R76" s="16"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" ht="21" customHeight="1">
+      <c r="A77" s="3">
         <v>58</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -3612,21 +3575,21 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-      <c r="Q77" s="10" t="n">
-        <f aca="false">D77</f>
-        <v>0</v>
-      </c>
-      <c r="R77" s="10" t="n">
-        <f aca="false">SUM(E77:P77)</f>
-        <v>0</v>
-      </c>
-      <c r="S77" s="10" t="n">
-        <f aca="false">Q77-R77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="Q77" s="10">
+        <f>D77</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="10">
+        <f>SUM(E77:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="10">
+        <f>Q77-R77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="21" customHeight="1">
+      <c r="A78" s="3">
         <v>59</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -3648,21 +3611,21 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-      <c r="Q78" s="10" t="n">
-        <f aca="false">D78</f>
-        <v>0</v>
-      </c>
-      <c r="R78" s="10" t="n">
-        <f aca="false">SUM(E78:P78)</f>
-        <v>0</v>
-      </c>
-      <c r="S78" s="10" t="n">
-        <f aca="false">Q78-R78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="Q78" s="10">
+        <f>D78</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="10">
+        <f>SUM(E78:P78)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="10">
+        <f>Q78-R78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="21" customHeight="1">
+      <c r="A79" s="3">
         <v>60</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -3684,24 +3647,24 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-      <c r="Q79" s="10" t="n">
-        <f aca="false">D79</f>
-        <v>0</v>
-      </c>
-      <c r="R79" s="10" t="n">
-        <f aca="false">SUM(E79:P79)</f>
-        <v>0</v>
-      </c>
-      <c r="S79" s="10" t="n">
-        <f aca="false">Q79-R79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="Q79" s="10">
+        <f>D79</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="10">
+        <f>SUM(E79:P79)</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="10">
+        <f>Q79-R79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="21" customHeight="1">
+      <c r="A80" s="3">
         <v>61</v>
       </c>
-      <c r="B80" s="17" t="n">
+      <c r="B80" s="17">
         <v>2531</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -3720,20 +3683,20 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-      <c r="Q80" s="10" t="n">
-        <f aca="false">D80</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="10" t="n">
-        <f aca="false">SUM(E80:P80)</f>
-        <v>0</v>
-      </c>
-      <c r="S80" s="10" t="n">
-        <f aca="false">Q80-R80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="10">
+        <f>D80</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="10">
+        <f>SUM(E80:P80)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="10">
+        <f>Q80-R80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="21" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="7" t="s">
         <v>133</v>
@@ -3752,20 +3715,20 @@
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
       <c r="P81" s="15"/>
-      <c r="Q81" s="16" t="n">
-        <f aca="false">D81</f>
-        <v>0</v>
-      </c>
-      <c r="R81" s="16" t="n">
-        <f aca="false">SUM(R77:R80)</f>
-        <v>0</v>
-      </c>
-      <c r="S81" s="16" t="n">
-        <f aca="false">Q81-R81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q81" s="16">
+        <f>D81</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="16">
+        <f>SUM(R77:R80)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="16">
+        <f>Q81-R81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="21" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
         <v>134</v>
@@ -3788,8 +3751,8 @@
       <c r="R82" s="16"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" ht="21" customHeight="1">
+      <c r="A83" s="3">
         <v>62</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -3811,21 +3774,21 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="10" t="n">
-        <f aca="false">D83</f>
-        <v>0</v>
-      </c>
-      <c r="R83" s="10" t="n">
-        <f aca="false">SUM(E83:P83)</f>
-        <v>0</v>
-      </c>
-      <c r="S83" s="10" t="n">
-        <f aca="false">Q83-R83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="Q83" s="10">
+        <f>D83</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="10">
+        <f>SUM(E83:P83)</f>
+        <v>0</v>
+      </c>
+      <c r="S83" s="10">
+        <f>Q83-R83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="21" customHeight="1">
+      <c r="A84" s="3">
         <v>63</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -3847,21 +3810,21 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
-      <c r="Q84" s="10" t="n">
-        <f aca="false">D84</f>
-        <v>0</v>
-      </c>
-      <c r="R84" s="10" t="n">
-        <f aca="false">SUM(E84:P84)</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="10" t="n">
-        <f aca="false">Q84-R84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="Q84" s="10">
+        <f>D84</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="10">
+        <f>SUM(E84:P84)</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="10">
+        <f>Q84-R84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="21" customHeight="1">
+      <c r="A85" s="3">
         <v>64</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -3883,20 +3846,20 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
-      <c r="Q85" s="10" t="n">
-        <f aca="false">D85</f>
-        <v>0</v>
-      </c>
-      <c r="R85" s="10" t="n">
-        <f aca="false">SUM(E85:P85)</f>
-        <v>0</v>
-      </c>
-      <c r="S85" s="10" t="n">
-        <f aca="false">Q85-R85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q85" s="10">
+        <f>D85</f>
+        <v>0</v>
+      </c>
+      <c r="R85" s="10">
+        <f>SUM(E85:P85)</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="10">
+        <f>Q85-R85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="21" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="7" t="s">
         <v>140</v>
@@ -3915,20 +3878,20 @@
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
-      <c r="Q86" s="16" t="n">
-        <f aca="false">D86</f>
-        <v>0</v>
-      </c>
-      <c r="R86" s="16" t="n">
-        <f aca="false">SUM(R83:R85)</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="16" t="n">
-        <f aca="false">Q86-R86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q86" s="16">
+        <f>D86</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="16">
+        <f>SUM(R83:R85)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="16">
+        <f>Q86-R86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="21" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3949,7 +3912,7 @@
       <c r="R87" s="16"/>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="21" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="7" t="s">
         <v>141</v>
@@ -3968,21 +3931,41 @@
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
       <c r="P88" s="15"/>
-      <c r="Q88" s="16" t="n">
-        <f aca="false">Q86+Q81+Q75+Q68+Q61+Q51+Q45+Q40+Q33+Q28</f>
+      <c r="Q88" s="16">
+        <f>Q86+Q81+Q75+Q68+Q61+Q51+Q45+Q40+Q33+Q28</f>
         <v>75778.81</v>
       </c>
-      <c r="R88" s="16" t="n">
-        <f aca="false">R86+R81+R75+R68+R61+R51+R45+R40+R33+R28</f>
-        <v>42532</v>
-      </c>
-      <c r="S88" s="16" t="n">
-        <f aca="false">S86+S81+S75+S68+S61+S51+S45+S40+S33+S28</f>
-        <v>33246.81</v>
+      <c r="R88" s="16">
+        <f>R86+R81+R75+R68+R61+R51+R45+R40+R33+R28</f>
+        <v>37699.92</v>
+      </c>
+      <c r="S88" s="16">
+        <f>S86+S81+S75+S68+S61+S51+S45+S40+S33+S28</f>
+        <v>38078.89</v>
+      </c>
+    </row>
+    <row r="89" ht="19.9">
+      <c r="C89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="1">
+        <v>764.12</v>
+      </c>
+      <c r="L89" s="1">
+        <v>8852.93</v>
+      </c>
+      <c r="M89" s="1">
+        <v>111.06</v>
+      </c>
+      <c r="N89" s="1">
+        <v>2698.29</v>
+      </c>
+      <c r="O89" s="1">
+        <v>795.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="Q2:S2"/>
